--- a/UI/reports/bug-report/Bug_Report.xlsx
+++ b/UI/reports/bug-report/Bug_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Fabio-Santoro\UI\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Fabio-Santoro\UI\reports\bug-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5140C3-ED49-4A9F-9B5A-575C3B2DCD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DEEC0C-2260-49F4-8C6C-F04ED3492B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug 1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>I should be prevented to submit the form</t>
   </si>
   <si>
-    <t>I was able  to submit the form</t>
-  </si>
-  <si>
     <t>The have been attached in the project repo</t>
   </si>
   <si>
@@ -162,36 +159,7 @@
     <t>#3</t>
   </si>
   <si>
-    <t>Search - No Validation on the fronend side for any combination of invalid or odd sequence od characters</t>
-  </si>
-  <si>
     <t>http://automationpractice.multiformis.com</t>
-  </si>
-  <si>
-    <t>From the main contact form page:
-1) Chose "Customer service" from the Subject Heading dropdown
-2) Enter a valid email (e.g. someemail@email.com)
-3) Enter a valid Order Reference (e.g. #123445)
-4) Click on "Choos File" &gt; Browse your local filesystem and attach a an invalid file with a txt extension (e.g. rename an exel file to a txt one)</t>
-  </si>
-  <si>
-    <t>From the main contact form page:
-1) Chose "Customer service" from the Subject Heading dropdown
-2) Enter a valid email (e.g. someemail@email.com)
-3) Enter a valid Order Reference (e.g. #123445)
-4) Click on "Choos File" &gt; Browse your local filesystem and attach a Valid text file with no extension (e.g. rename a text file by removing the extension)</t>
-  </si>
-  <si>
-    <t>I was able perform searches whith aforementioned sequences. Although a meaningful message was displayed  (No results were found for your search), the unusual sequence was printed out on the screen as well (unpleasant to see).</t>
-  </si>
-  <si>
-    <t>Search - No Validation on the frontend side is performed for any combination of invalid or odd sequences of characters</t>
-  </si>
-  <si>
-    <t>Search - No Validation on the frontend side is performed for any combination long combination of characters</t>
-  </si>
-  <si>
-    <t>The search box accepts long sequence of characters without performing any upfront validation</t>
   </si>
   <si>
     <t xml:space="preserve">From the main page:
@@ -215,16 +183,48 @@
     <t>The form should perform upfront validation a long sequence to be accepted</t>
   </si>
   <si>
-    <t>I was able perform searches whith aforementioned long sequences. Although a meaningful message was displayed  (No results were found for your search), the unusual sequence was printed out on the screen  whioch could lead the browser  to crash or run out of memory</t>
-  </si>
-  <si>
     <t>#4</t>
   </si>
   <si>
     <t>After filling all mandatory fields on the  "Contact us" page form, I was  able to sumit the form by attaching an invalid excel file renamed with a .txt extention (MIME Type: application/vnd.openxmlformats-officedocument.spreadsheetml.sheet)</t>
   </si>
   <si>
-    <t xml:space="preserve">FILE UPLOAD - Able to submit a form with an invalid file attached (MIME Type: application/vnd.openxmlformats-officedocument.spreadsheetml.sheet) </t>
+    <t>From the main contact form page:
+1) Chose "Customer service" from the Subject Heading dropdown
+2) Enter a valid email (e.g. someemail@email.com)
+3) Enter a valid Order Reference (e.g. #123445)
+4) Click on "Choos File" &gt; Browse your local filesystem and attach a Valid text file with no extension (e.g. rename a text file by removing the extension or use the one from ./data/ValidTestFile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE UPLOAD - Successfully able to submit a form with an invalid file attached (MIME Type: application/vnd.openxmlformats-officedocument.spreadsheetml.sheet) </t>
+  </si>
+  <si>
+    <t>From the main contact form page:
+1) Chose "Customer service" from the Subject Heading dropdown
+2) Enter a valid email (e.g. someemail@email.com)
+3) Enter a valid Order Reference (e.g. #123445)
+4) Click on "Choos File" &gt; Browse your local filesystem and attach a an invalid file with a txt extension (e.g. rename an exel file to a txt one or use the one from ./data/NotReallyATextFile.txt)</t>
+  </si>
+  <si>
+    <t>I was able to successfully submit the form</t>
+  </si>
+  <si>
+    <t>SEARCH - No Validation on the fronend side for any combination of invalid or odd sequence od characters</t>
+  </si>
+  <si>
+    <t>SEARCH - No Validation on the frontend side is performed for any combination of invalid or odd sequences of characters</t>
+  </si>
+  <si>
+    <t>SEARCH - No Validation on the frontend side is performed for any combination long combination of characters</t>
+  </si>
+  <si>
+    <t>SEARCH - The search box accepts long sequence of characters without performing any upfront validation</t>
+  </si>
+  <si>
+    <t>I was able to perform searches whith aforementioned sequences. Although a meaningful message was displayed  (No results were found for your search), the unusual sequence was presented as result on the screen as well (unpleasant to see).</t>
+  </si>
+  <si>
+    <t>I was able perform searches whith aforementioned long sequences. Although a meaningful message was displayed  (No results were found for your search), the long sequence w sequence was presented as result on the screen and potentially it could lead some browser  to crash or run out of memory as well as being unpleasent to see.</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1113,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4288,7 +4288,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4328,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -4358,7 +4358,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -4418,7 +4418,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,7 +4445,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841D423A-26D9-4268-BB8E-366BE6D9CB8E}">
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -7487,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,7 +7496,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -7526,7 +7526,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -7536,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -7586,7 +7586,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -7595,7 +7595,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10624,8 +10624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5852505-F041-4AA1-BD2E-4BDA22BC32A8}">
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10656,7 +10656,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10665,7 +10665,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -10695,7 +10695,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -10705,7 +10705,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -10755,7 +10755,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -10764,7 +10764,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10773,7 +10773,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
